--- a/raw_data/20200818_saline/20200818_Sensor0_Test_66.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_66.xlsx
@@ -1,2095 +1,2511 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF116F8-0DC4-48BB-9FDE-71737384688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>58502.913811</v>
+        <v>58502.913810999999</v>
       </c>
       <c r="B2" s="1">
         <v>16.250809</v>
       </c>
       <c r="C2" s="1">
-        <v>906.224000</v>
+        <v>906.22400000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-192.039000</v>
+        <v>-192.03899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>58512.949826</v>
+        <v>58512.949825999996</v>
       </c>
       <c r="G2" s="1">
-        <v>16.253597</v>
+        <v>16.253596999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>921.916000</v>
+        <v>921.91600000000005</v>
       </c>
       <c r="I2" s="1">
-        <v>-162.811000</v>
+        <v>-162.81100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>58523.080611</v>
+        <v>58523.080610999998</v>
       </c>
       <c r="L2" s="1">
         <v>16.256411</v>
       </c>
       <c r="M2" s="1">
-        <v>942.909000</v>
+        <v>942.90899999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-116.793000</v>
+        <v>-116.79300000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>58533.610679</v>
+        <v>58533.610678999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.259336</v>
+        <v>16.259336000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>949.131000</v>
+        <v>949.13099999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.991000</v>
+        <v>-101.991</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>58544.197556</v>
+        <v>58544.197555999999</v>
       </c>
       <c r="V2" s="1">
-        <v>16.262277</v>
+        <v>16.262277000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.540000</v>
+        <v>955.54</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.675500</v>
+        <v>-88.6755</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>58554.660395</v>
+        <v>58554.660394999999</v>
       </c>
       <c r="AA2" s="1">
         <v>16.265183</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.668000</v>
+        <v>962.66800000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.728400</v>
+        <v>-79.728399999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>58565.222699</v>
+        <v>58565.222698999998</v>
       </c>
       <c r="AF2" s="1">
         <v>16.268117</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.686000</v>
+        <v>967.68600000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.453400</v>
+        <v>-79.453400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>58575.679855</v>
+        <v>58575.679855000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.271022</v>
+        <v>16.271021999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.614000</v>
+        <v>975.61400000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.457000</v>
+        <v>-87.456999999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>58586.270469</v>
+        <v>58586.270469000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.273964</v>
+        <v>16.273963999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.815000</v>
+        <v>984.81500000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>58597.553457</v>
+        <v>58597.553457000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.277098</v>
+        <v>16.277097999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.299000</v>
+        <v>996.29899999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.382000</v>
+        <v>-124.38200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>58608.659346</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.280183</v>
+        <v>16.280183000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.030000</v>
+        <v>1006.03</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.159000</v>
+        <v>-143.15899999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>58619.241989</v>
+        <v>58619.241989000002</v>
       </c>
       <c r="BE2" s="1">
         <v>16.283123</v>
       </c>
       <c r="BF2" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.099000</v>
+        <v>-228.09899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>58630.264620</v>
+        <v>58630.264620000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>16.286185</v>
       </c>
       <c r="BK2" s="1">
-        <v>1131.860000</v>
+        <v>1131.8599999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-363.793000</v>
+        <v>-363.79300000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>58641.391830</v>
+        <v>58641.39183</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.289276</v>
+        <v>16.289276000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-572.726000</v>
+        <v>-572.726</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>58652.467001</v>
+        <v>58652.467000999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.292352</v>
+        <v>16.292352000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.850000</v>
+        <v>1411.85</v>
       </c>
       <c r="BV2" s="1">
-        <v>-795.747000</v>
+        <v>-795.74699999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>58662.753069</v>
+        <v>58662.753068999999</v>
       </c>
       <c r="BY2" s="1">
         <v>16.295209</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1573.820000</v>
+        <v>1573.82</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1027.250000</v>
+        <v>-1027.25</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>58673.922444</v>
+        <v>58673.922444000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.298312</v>
+        <v>16.298311999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1980.940000</v>
+        <v>1980.94</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1567.180000</v>
+        <v>-1567.18</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>58503.294733</v>
+        <v>58503.294733000002</v>
       </c>
       <c r="B3" s="1">
-        <v>16.250915</v>
+        <v>16.250914999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>906.365000</v>
+        <v>906.36500000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.074000</v>
+        <v>-192.07400000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>58513.371920</v>
+        <v>58513.371919999998</v>
       </c>
       <c r="G3" s="1">
-        <v>16.253714</v>
+        <v>16.253713999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>921.935000</v>
+        <v>921.93499999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-162.912000</v>
+        <v>-162.91200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>58523.508695</v>
+        <v>58523.508694999997</v>
       </c>
       <c r="L3" s="1">
-        <v>16.256530</v>
+        <v>16.256530000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.896000</v>
+        <v>942.89599999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.595000</v>
+        <v>-116.595</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>58534.021862</v>
+        <v>58534.021862000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.259451</v>
+        <v>16.259450999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>949.147000</v>
+        <v>949.14700000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.970000</v>
+        <v>-101.97</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>58544.592629</v>
+        <v>58544.592628999999</v>
       </c>
       <c r="V3" s="1">
         <v>16.262387</v>
       </c>
       <c r="W3" s="1">
-        <v>955.455000</v>
+        <v>955.45500000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.585300</v>
+        <v>-88.585300000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>58555.025449</v>
+        <v>58555.025449000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.265285</v>
+        <v>16.265284999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.678000</v>
+        <v>962.678</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.646400</v>
+        <v>-79.6464</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>58565.607627</v>
+        <v>58565.607626999998</v>
       </c>
       <c r="AF3" s="1">
         <v>16.268224</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.717000</v>
+        <v>967.71699999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.399600</v>
+        <v>-79.399600000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>58576.066237</v>
+        <v>58576.066236999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.271130</v>
+        <v>16.271129999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.562000</v>
+        <v>975.56200000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.532100</v>
+        <v>-87.5321</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>58587.020910</v>
+        <v>58587.020909999999</v>
       </c>
       <c r="AP3" s="1">
         <v>16.274172</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.824000</v>
+        <v>984.82399999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.691000</v>
+        <v>-102.691</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>58597.959376</v>
+        <v>58597.959375999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.277211</v>
+        <v>16.277211000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.300000</v>
+        <v>996.3</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.367000</v>
+        <v>-124.367</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>58609.050689</v>
+        <v>58609.050689000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.280292</v>
+        <v>16.280291999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.146000</v>
+        <v>-143.14599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>58619.611012</v>
+        <v>58619.611012000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.283225</v>
+        <v>16.283225000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.090000</v>
+        <v>-228.09</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>58630.991753</v>
+        <v>58630.991753000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.286387</v>
+        <v>16.286387000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1131.850000</v>
+        <v>1131.8499999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-363.810000</v>
+        <v>-363.81</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>58642.207749</v>
+        <v>58642.207749000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.289502</v>
+        <v>16.289501999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.010000</v>
+        <v>1264.01</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-572.746000</v>
+        <v>-572.74599999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>58652.599432</v>
+        <v>58652.599432000003</v>
       </c>
       <c r="BT3" s="1">
         <v>16.292389</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.840000</v>
+        <v>1411.84</v>
       </c>
       <c r="BV3" s="1">
-        <v>-795.810000</v>
+        <v>-795.81</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>58663.240108</v>
+        <v>58663.240107999998</v>
       </c>
       <c r="BY3" s="1">
         <v>16.295344</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1573.790000</v>
+        <v>1573.79</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1027.300000</v>
+        <v>-1027.3</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>58674.524091</v>
+        <v>58674.524090999999</v>
       </c>
       <c r="CD3" s="1">
         <v>16.298479</v>
       </c>
       <c r="CE3" s="1">
-        <v>1981.710000</v>
+        <v>1981.71</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1568.710000</v>
+        <v>-1568.71</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>58503.718781</v>
+        <v>58503.718781000003</v>
       </c>
       <c r="B4" s="1">
         <v>16.251033</v>
       </c>
       <c r="C4" s="1">
-        <v>906.152000</v>
+        <v>906.15200000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-192.090000</v>
+        <v>-192.09</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>58513.641280</v>
+        <v>58513.641280000003</v>
       </c>
       <c r="G4" s="1">
-        <v>16.253789</v>
+        <v>16.253789000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>921.634000</v>
+        <v>921.63400000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.026000</v>
+        <v>-163.02600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>58523.844451</v>
+        <v>58523.844450999997</v>
       </c>
       <c r="L4" s="1">
-        <v>16.256623</v>
+        <v>16.256623000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>943.005000</v>
+        <v>943.005</v>
       </c>
       <c r="N4" s="1">
-        <v>-116.678000</v>
+        <v>-116.678</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>58534.373029</v>
+        <v>58534.373029000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.259548</v>
+        <v>16.259547999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>949.139000</v>
+        <v>949.13900000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.994000</v>
+        <v>-101.994</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>58544.944300</v>
+        <v>58544.944300000003</v>
       </c>
       <c r="V4" s="1">
-        <v>16.262485</v>
+        <v>16.262485000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>955.555000</v>
+        <v>955.55499999999995</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.703200</v>
+        <v>-88.703199999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>58555.374665</v>
+        <v>58555.374665000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.265382</v>
+        <v>16.265381999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.680000</v>
+        <v>962.68</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.644100</v>
+        <v>-79.644099999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>58566.295552</v>
+        <v>58566.295552000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.268415</v>
+        <v>16.268415000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.778000</v>
+        <v>967.77800000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.469600</v>
+        <v>-79.4696</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>58576.765617</v>
+        <v>58576.765616999997</v>
       </c>
       <c r="AK4" s="1">
         <v>16.271324</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.567000</v>
+        <v>975.56700000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.549100</v>
+        <v>-87.549099999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>58587.381471</v>
+        <v>58587.381471000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.274273</v>
+        <v>16.274273000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.793000</v>
+        <v>984.79300000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.684000</v>
+        <v>-102.684</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>58598.326688</v>
+        <v>58598.326688000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.277313</v>
+        <v>16.277312999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.304000</v>
+        <v>996.30399999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.390000</v>
+        <v>-124.39</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>58609.410289</v>
+        <v>58609.410288999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.280392</v>
+        <v>16.280391999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.171000</v>
+        <v>-143.17099999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>58620.278167</v>
+        <v>58620.278166999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.283411</v>
+        <v>16.283411000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.080000</v>
+        <v>-228.08</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>58631.460933</v>
+        <v>58631.460933000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>16.286517</v>
       </c>
       <c r="BK4" s="1">
-        <v>1131.810000</v>
+        <v>1131.81</v>
       </c>
       <c r="BL4" s="1">
-        <v>-363.804000</v>
+        <v>-363.80399999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>58642.647206</v>
+        <v>58642.647206000001</v>
       </c>
       <c r="BO4" s="1">
         <v>16.289624</v>
       </c>
       <c r="BP4" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-572.818000</v>
+        <v>-572.81799999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>58653.013127</v>
+        <v>58653.013126999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.292504</v>
+        <v>16.292504000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.940000</v>
+        <v>1411.94</v>
       </c>
       <c r="BV4" s="1">
-        <v>-795.824000</v>
+        <v>-795.82399999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>58663.687002</v>
+        <v>58663.687001999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.295469</v>
+        <v>16.295469000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1573.700000</v>
+        <v>1573.7</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1027.260000</v>
+        <v>-1027.26</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>58675.203115</v>
+        <v>58675.203114999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.298668</v>
+        <v>16.298667999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1567.290000</v>
+        <v>-1567.29</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>58503.984453</v>
+        <v>58503.984452999997</v>
       </c>
       <c r="B5" s="1">
-        <v>16.251107</v>
+        <v>16.251107000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>906.301000</v>
+        <v>906.30100000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-192.009000</v>
+        <v>-192.00899999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>58513.987988</v>
+        <v>58513.987988000001</v>
       </c>
       <c r="G5" s="1">
-        <v>16.253886</v>
+        <v>16.253886000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>922.104000</v>
+        <v>922.10400000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.028000</v>
+        <v>-163.02799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>58524.188675</v>
+        <v>58524.188674999998</v>
       </c>
       <c r="L5" s="1">
         <v>16.256719</v>
       </c>
       <c r="M5" s="1">
-        <v>943.098000</v>
+        <v>943.09799999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-116.671000</v>
+        <v>-116.67100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>58534.722740</v>
+        <v>58534.722739999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.259645</v>
+        <v>16.259644999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>949.145000</v>
+        <v>949.14499999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.051000</v>
+        <v>-102.051</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>58545.627782</v>
+        <v>58545.627782000003</v>
       </c>
       <c r="V5" s="1">
-        <v>16.262674</v>
+        <v>16.262674000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>955.513000</v>
+        <v>955.51300000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.500100</v>
+        <v>-88.500100000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>58556.069036</v>
+        <v>58556.069036000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.265575</v>
+        <v>16.265574999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.682000</v>
+        <v>962.68200000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.713400</v>
+        <v>-79.713399999999993</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>58566.637786</v>
+        <v>58566.637785999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.268510</v>
+        <v>16.268509999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.583000</v>
+        <v>967.58299999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.479200</v>
+        <v>-79.479200000000006</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>58577.115277</v>
+        <v>58577.115276999997</v>
       </c>
       <c r="AK5" s="1">
         <v>16.271421</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.580000</v>
+        <v>975.58</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.516800</v>
+        <v>-87.516800000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>58587.741603</v>
+        <v>58587.741603000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.274373</v>
+        <v>16.274373000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.796000</v>
+        <v>984.79600000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.726000</v>
+        <v>-102.726</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>58599.014670</v>
+        <v>58599.014669999997</v>
       </c>
       <c r="AU5" s="1">
         <v>16.277504</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.350000</v>
+        <v>996.35</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.325000</v>
+        <v>-124.325</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>58609.862678</v>
+        <v>58609.862677999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>16.280517</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.152000</v>
+        <v>-143.15199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>58620.721090</v>
+        <v>58620.721089999999</v>
       </c>
       <c r="BE5" s="1">
         <v>16.283534</v>
       </c>
       <c r="BF5" s="1">
-        <v>1051.720000</v>
+        <v>1051.72</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.097000</v>
+        <v>-228.09700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>58631.833956</v>
+        <v>58631.833956000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>16.286621</v>
       </c>
       <c r="BK5" s="1">
-        <v>1131.860000</v>
+        <v>1131.8599999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-363.826000</v>
+        <v>-363.82600000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>58643.046484</v>
+        <v>58643.046483999999</v>
       </c>
       <c r="BO5" s="1">
         <v>16.289735</v>
       </c>
       <c r="BP5" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-572.816000</v>
+        <v>-572.81600000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>58653.442632</v>
+        <v>58653.442631999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.292623</v>
+        <v>16.292622999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.970000</v>
+        <v>1411.97</v>
       </c>
       <c r="BV5" s="1">
-        <v>-795.808000</v>
+        <v>-795.80799999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>58664.145801</v>
+        <v>58664.145800999999</v>
       </c>
       <c r="BY5" s="1">
         <v>16.295596</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1573.700000</v>
+        <v>1573.7</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1027.290000</v>
+        <v>-1027.29</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>58675.566683</v>
+        <v>58675.566682999997</v>
       </c>
       <c r="CD5" s="1">
         <v>16.298769</v>
       </c>
       <c r="CE5" s="1">
-        <v>1981.390000</v>
+        <v>1981.39</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1567.830000</v>
+        <v>-1567.83</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>58504.318941</v>
+        <v>58504.318940999998</v>
       </c>
       <c r="B6" s="1">
-        <v>16.251200</v>
+        <v>16.251200000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>906.179000</v>
+        <v>906.17899999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.272000</v>
+        <v>-192.27199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>58514.335150</v>
+        <v>58514.335149999999</v>
       </c>
       <c r="G6" s="1">
-        <v>16.253982</v>
+        <v>16.253982000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>922.135000</v>
+        <v>922.13499999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.800000</v>
+        <v>-162.80000000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>58524.536369</v>
+        <v>58524.536369000001</v>
       </c>
       <c r="L6" s="1">
-        <v>16.256816</v>
+        <v>16.256816000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>942.990000</v>
+        <v>942.99</v>
       </c>
       <c r="N6" s="1">
-        <v>-116.748000</v>
+        <v>-116.748</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>58535.421571</v>
+        <v>58535.421570999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.259839</v>
+        <v>16.259838999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>949.156000</v>
+        <v>949.15599999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.972000</v>
+        <v>-101.97199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>58545.974981</v>
+        <v>58545.974980999999</v>
       </c>
       <c r="V6" s="1">
-        <v>16.262771</v>
+        <v>16.262771000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.589000</v>
+        <v>955.58900000000006</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.707500</v>
+        <v>-88.707499999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>58556.419703</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.265672</v>
+        <v>16.265671999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.681000</v>
+        <v>962.68100000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.744000</v>
+        <v>-79.744</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>58566.981513</v>
+        <v>58566.981512999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.268606</v>
+        <v>16.268605999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.658000</v>
+        <v>967.65800000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.504500</v>
+        <v>-79.504499999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>58577.787354</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.271608</v>
+        <v>16.271608000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.591000</v>
+        <v>975.59100000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.493400</v>
+        <v>-87.493399999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>58588.406733</v>
+        <v>58588.406733000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.274557</v>
+        <v>16.274557000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.806000</v>
+        <v>984.80600000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.712000</v>
+        <v>-102.712</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>58599.446158</v>
+        <v>58599.446157999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.277624</v>
+        <v>16.277623999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.300000</v>
+        <v>996.3</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.343000</v>
+        <v>-124.343</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>58610.127048</v>
+        <v>58610.127048000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.280591</v>
+        <v>16.280591000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.158000</v>
+        <v>-143.15799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>58621.080659</v>
+        <v>58621.080658999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.283634</v>
+        <v>16.283633999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.113000</v>
+        <v>-228.113</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>58632.212899</v>
+        <v>58632.212898999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.286726</v>
+        <v>16.286726000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1131.860000</v>
+        <v>1131.8599999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-363.785000</v>
+        <v>-363.78500000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>58643.476021</v>
+        <v>58643.476021000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.289854</v>
+        <v>16.289853999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.010000</v>
+        <v>1264.01</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-572.805000</v>
+        <v>-572.80499999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>58653.860262</v>
+        <v>58653.860262000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.292739</v>
+        <v>16.292739000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.060000</v>
+        <v>1412.06</v>
       </c>
       <c r="BV6" s="1">
-        <v>-795.754000</v>
+        <v>-795.75400000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>58664.591704</v>
+        <v>58664.591703999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.295720</v>
+        <v>16.295719999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1573.730000</v>
+        <v>1573.73</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1027.380000</v>
+        <v>-1027.3800000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>58676.122228</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.298923</v>
+        <v>16.298922999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1981.760000</v>
+        <v>1981.76</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1568.700000</v>
+        <v>-1568.7</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>58504.660206</v>
       </c>
       <c r="B7" s="1">
-        <v>16.251295</v>
+        <v>16.251294999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>906.232000</v>
+        <v>906.23199999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-192.009000</v>
+        <v>-192.00899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>58515.024094</v>
       </c>
       <c r="G7" s="1">
-        <v>16.254173</v>
+        <v>16.254173000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>921.485000</v>
+        <v>921.48500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.106000</v>
+        <v>-163.10599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>58525.228290</v>
+        <v>58525.228289999999</v>
       </c>
       <c r="L7" s="1">
-        <v>16.257008</v>
+        <v>16.257007999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>943.246000</v>
+        <v>943.24599999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-116.729000</v>
+        <v>-116.729</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>58535.769763</v>
+        <v>58535.769762999997</v>
       </c>
       <c r="Q7" s="1">
         <v>16.259936</v>
       </c>
       <c r="R7" s="1">
-        <v>949.179000</v>
+        <v>949.17899999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.904000</v>
+        <v>-101.904</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>58546.320661</v>
+        <v>58546.320660999998</v>
       </c>
       <c r="V7" s="1">
         <v>16.262867</v>
       </c>
       <c r="W7" s="1">
-        <v>955.576000</v>
+        <v>955.57600000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.688700</v>
+        <v>-88.688699999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>58556.772856</v>
+        <v>58556.772856000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.265770</v>
+        <v>16.26577</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.625000</v>
+        <v>962.625</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.737100</v>
+        <v>-79.737099999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>58567.646153</v>
+        <v>58567.646153000002</v>
       </c>
       <c r="AF7" s="1">
         <v>16.268791</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.709000</v>
+        <v>967.70899999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.379400</v>
+        <v>-79.379400000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>58578.161837</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.271712</v>
+        <v>16.271712000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.573000</v>
+        <v>975.57299999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.533500</v>
+        <v>-87.533500000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>58588.850653</v>
+        <v>58588.850653000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.274681</v>
+        <v>16.274681000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.786000</v>
+        <v>984.78599999999994</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.704000</v>
+        <v>-102.70399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>58599.812207</v>
+        <v>58599.812207000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.277726</v>
+        <v>16.277726000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.303000</v>
+        <v>996.303</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.333000</v>
+        <v>-124.333</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>58610.485119</v>
+        <v>58610.485118999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.280690</v>
+        <v>16.28069</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.162000</v>
+        <v>-143.16200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>58621.442241</v>
+        <v>58621.442240999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.283734</v>
+        <v>16.283733999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.105000</v>
+        <v>-228.10499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>58632.632483</v>
+        <v>58632.632483000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>16.286842</v>
       </c>
       <c r="BK7" s="1">
-        <v>1131.840000</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-363.839000</v>
+        <v>-363.839</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>58643.864393</v>
+        <v>58643.864393000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.289962</v>
+        <v>16.289961999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-572.845000</v>
+        <v>-572.84500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>58654.271943</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.292853</v>
+        <v>16.292853000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.140000</v>
+        <v>1412.14</v>
       </c>
       <c r="BV7" s="1">
-        <v>-795.787000</v>
+        <v>-795.78700000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>58665.046041</v>
+        <v>58665.046041000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.295846</v>
+        <v>16.295846000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1573.780000</v>
+        <v>1573.78</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1027.190000</v>
+        <v>-1027.19</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>58676.648953</v>
+        <v>58676.648953000004</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.299069</v>
+        <v>16.299068999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1981.090000</v>
+        <v>1981.09</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1567.620000</v>
+        <v>-1567.62</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>58505.342218</v>
+        <v>58505.342217999998</v>
       </c>
       <c r="B8" s="1">
-        <v>16.251484</v>
+        <v>16.251484000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>906.192000</v>
+        <v>906.19200000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.037000</v>
+        <v>-192.03700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>58515.367854</v>
+        <v>58515.367853999996</v>
       </c>
       <c r="G8" s="1">
-        <v>16.254269</v>
+        <v>16.254269000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>921.901000</v>
+        <v>921.90099999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-162.342000</v>
+        <v>-162.34200000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>58525.576015</v>
+        <v>58525.576014999999</v>
       </c>
       <c r="L8" s="1">
-        <v>16.257104</v>
+        <v>16.257104000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>943.056000</v>
+        <v>943.05600000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-116.598000</v>
+        <v>-116.598</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>58536.116963</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.260032</v>
+        <v>16.260031999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>949.198000</v>
+        <v>949.19799999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.888000</v>
+        <v>-101.88800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>58546.985795</v>
+        <v>58546.985795000001</v>
       </c>
       <c r="V8" s="1">
-        <v>16.263052</v>
+        <v>16.263051999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>955.541000</v>
+        <v>955.54100000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.592400</v>
+        <v>-88.592399999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>58557.429783</v>
@@ -2098,73 +2514,73 @@
         <v>16.265953</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.711000</v>
+        <v>962.71100000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.688900</v>
+        <v>-79.688900000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>58568.017201</v>
+        <v>58568.017201000002</v>
       </c>
       <c r="AF8" s="1">
         <v>16.268894</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.640000</v>
+        <v>967.64</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.461300</v>
+        <v>-79.461299999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>58578.508069</v>
+        <v>58578.508069000003</v>
       </c>
       <c r="AK8" s="1">
         <v>16.271808</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.576000</v>
+        <v>975.57600000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.494000</v>
+        <v>-87.494</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>58589.210716</v>
+        <v>58589.210716000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.274781</v>
+        <v>16.274781000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.787000</v>
+        <v>984.78700000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.691000</v>
+        <v>-102.691</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>58600.176072</v>
+        <v>58600.176072000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.277827</v>
+        <v>16.277826999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.335000</v>
+        <v>996.33500000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.328000</v>
+        <v>-124.328</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>58610.907711</v>
@@ -2173,106 +2589,106 @@
         <v>16.280808</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.135000</v>
+        <v>-143.13499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>58621.863841</v>
+        <v>58621.863840999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.283851</v>
+        <v>16.283850999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.074000</v>
+        <v>-228.07400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>58632.990131</v>
+        <v>58632.990130999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>16.286942</v>
       </c>
       <c r="BK8" s="1">
-        <v>1131.820000</v>
+        <v>1131.82</v>
       </c>
       <c r="BL8" s="1">
-        <v>-363.809000</v>
+        <v>-363.80900000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>58644.288765</v>
+        <v>58644.288764999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.290080</v>
+        <v>16.29008</v>
       </c>
       <c r="BP8" s="1">
-        <v>1263.960000</v>
+        <v>1263.96</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-572.821000</v>
+        <v>-572.82100000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>58654.685606</v>
+        <v>58654.685605999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.292968</v>
+        <v>16.292967999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="BV8" s="1">
-        <v>-795.810000</v>
+        <v>-795.81</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>58665.491943</v>
+        <v>58665.491943000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.295970</v>
+        <v>16.295970000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1573.630000</v>
+        <v>1573.63</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1027.320000</v>
+        <v>-1027.32</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>58677.167303</v>
+        <v>58677.167303000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.299213</v>
+        <v>16.299213000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>1981.300000</v>
+        <v>1981.3</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1567.430000</v>
+        <v>-1567.43</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>58505.684427</v>
       </c>
@@ -2280,375 +2696,375 @@
         <v>16.251579</v>
       </c>
       <c r="C9" s="1">
-        <v>906.255000</v>
+        <v>906.255</v>
       </c>
       <c r="D9" s="1">
-        <v>-191.971000</v>
+        <v>-191.971</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>58515.710094</v>
+        <v>58515.710094000002</v>
       </c>
       <c r="G9" s="1">
-        <v>16.254364</v>
+        <v>16.254363999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>921.837000</v>
+        <v>921.83699999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-162.831000</v>
+        <v>-162.83099999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>58525.921727</v>
+        <v>58525.921727000001</v>
       </c>
       <c r="L9" s="1">
-        <v>16.257200</v>
+        <v>16.257200000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>943.084000</v>
+        <v>943.08399999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.748000</v>
+        <v>-116.748</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>58536.782595</v>
+        <v>58536.782594999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.260217</v>
+        <v>16.260217000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>949.227000</v>
+        <v>949.22699999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.927000</v>
+        <v>-101.92700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>58547.351877</v>
+        <v>58547.351877000001</v>
       </c>
       <c r="V9" s="1">
-        <v>16.263153</v>
+        <v>16.263152999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>955.556000</v>
+        <v>955.55600000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.708400</v>
+        <v>-88.708399999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>58557.814986</v>
+        <v>58557.814985999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.266060</v>
+        <v>16.26606</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.669000</v>
+        <v>962.66899999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.671300</v>
+        <v>-79.671300000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>58568.362903</v>
+        <v>58568.362903000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.268990</v>
+        <v>16.268989999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.655000</v>
+        <v>967.65499999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.428800</v>
+        <v>-79.428799999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>58578.858217</v>
+        <v>58578.858217000001</v>
       </c>
       <c r="AK9" s="1">
         <v>16.271905</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.596000</v>
+        <v>975.596</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.518600</v>
+        <v>-87.518600000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>58589.569325</v>
+        <v>58589.569324999997</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.274880</v>
+        <v>16.27488</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.807000</v>
+        <v>984.80700000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.697000</v>
+        <v>-102.697</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>58600.598364</v>
+        <v>58600.598363999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.277944</v>
+        <v>16.277944000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.363000</v>
+        <v>996.36300000000006</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.341000</v>
+        <v>-124.34099999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>58611.202334</v>
+        <v>58611.202334000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.280890</v>
+        <v>16.280889999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.030000</v>
+        <v>1006.03</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.163000</v>
+        <v>-143.16300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>58622.163957</v>
+        <v>58622.163956999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.283934</v>
+        <v>16.283933999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.091000</v>
+        <v>-228.09100000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>58633.365075</v>
+        <v>58633.365075000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>16.287046</v>
       </c>
       <c r="BK9" s="1">
-        <v>1131.840000</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-363.841000</v>
+        <v>-363.84100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>58644.678818</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.290189</v>
+        <v>16.290189000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-572.804000</v>
+        <v>-572.80399999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>58655.100271</v>
+        <v>58655.100271000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.293083</v>
+        <v>16.293082999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.150000</v>
+        <v>1412.15</v>
       </c>
       <c r="BV9" s="1">
-        <v>-795.688000</v>
+        <v>-795.68799999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>58665.954251</v>
+        <v>58665.954251000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.296098</v>
+        <v>16.296098000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1573.620000</v>
+        <v>1573.62</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1027.390000</v>
+        <v>-1027.3900000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>58677.720806</v>
+        <v>58677.720805999998</v>
       </c>
       <c r="CD9" s="1">
         <v>16.299367</v>
       </c>
       <c r="CE9" s="1">
-        <v>1981.810000</v>
+        <v>1981.81</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1568.550000</v>
+        <v>-1568.55</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>58506.026667</v>
+        <v>58506.026666999998</v>
       </c>
       <c r="B10" s="1">
-        <v>16.251674</v>
+        <v>16.251674000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>906.146000</v>
+        <v>906.14599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-191.970000</v>
+        <v>-191.97</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>58516.365808</v>
+        <v>58516.365808000002</v>
       </c>
       <c r="G10" s="1">
-        <v>16.254546</v>
+        <v>16.254546000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>922.007000</v>
+        <v>922.00699999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-162.738000</v>
+        <v>-162.738</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>58526.576414</v>
+        <v>58526.576414000003</v>
       </c>
       <c r="L10" s="1">
         <v>16.257382</v>
       </c>
       <c r="M10" s="1">
-        <v>943.045000</v>
+        <v>943.04499999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-116.557000</v>
+        <v>-116.557</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>58537.161569</v>
+        <v>58537.161569000004</v>
       </c>
       <c r="Q10" s="1">
         <v>16.260323</v>
       </c>
       <c r="R10" s="1">
-        <v>949.216000</v>
+        <v>949.21600000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.960000</v>
+        <v>-101.96</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>58547.694610</v>
+        <v>58547.694609999999</v>
       </c>
       <c r="V10" s="1">
-        <v>16.263249</v>
+        <v>16.263248999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>955.577000</v>
+        <v>955.577</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.572700</v>
+        <v>-88.572699999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>58558.162645</v>
+        <v>58558.162644999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.266156</v>
+        <v>16.266155999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.728000</v>
+        <v>962.72799999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.639300</v>
+        <v>-79.639300000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>58568.709111</v>
+        <v>58568.709110999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.269086</v>
+        <v>16.269086000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.576000</v>
+        <v>967.57600000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.443300</v>
+        <v>-79.443299999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>58579.287258</v>
+        <v>58579.287257999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.272024</v>
+        <v>16.272023999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.559000</v>
+        <v>975.55899999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.517800</v>
+        <v>-87.517799999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>58589.993402</v>
@@ -2657,103 +3073,103 @@
         <v>16.274998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.824000</v>
+        <v>984.82399999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.649000</v>
+        <v>-102.649</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>58600.904428</v>
+        <v>58600.904428000002</v>
       </c>
       <c r="AU10" s="1">
         <v>16.278029</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.327000</v>
+        <v>996.327</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.344000</v>
+        <v>-124.34399999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>58611.561934</v>
+        <v>58611.561933999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.280989</v>
+        <v>16.280989000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.152000</v>
+        <v>-143.15199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>58622.530463</v>
+        <v>58622.530463000003</v>
       </c>
       <c r="BE10" s="1">
         <v>16.284036</v>
       </c>
       <c r="BF10" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.108000</v>
+        <v>-228.108</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>58633.739621</v>
+        <v>58633.739621000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.287150</v>
+        <v>16.28715</v>
       </c>
       <c r="BK10" s="1">
-        <v>1131.870000</v>
+        <v>1131.8699999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-363.821000</v>
+        <v>-363.82100000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>58645.110834</v>
+        <v>58645.110833999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.290309</v>
+        <v>16.290309000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1263.950000</v>
+        <v>1263.95</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-572.858000</v>
+        <v>-572.85799999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>58655.522852</v>
+        <v>58655.522852000002</v>
       </c>
       <c r="BT10" s="1">
         <v>16.293201</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="BV10" s="1">
-        <v>-795.646000</v>
+        <v>-795.64599999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>58666.399157</v>
@@ -2762,452 +3178,452 @@
         <v>16.296222</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1573.720000</v>
+        <v>1573.72</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1027.300000</v>
+        <v>-1027.3</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>58678.251526</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.299514</v>
+        <v>16.299513999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1980.630000</v>
+        <v>1980.63</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1567.260000</v>
+        <v>-1567.26</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>58506.685385</v>
+        <v>58506.685384999997</v>
       </c>
       <c r="B11" s="1">
-        <v>16.251857</v>
+        <v>16.251857000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>906.158000</v>
+        <v>906.15800000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.185000</v>
+        <v>-192.185</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>58516.750031</v>
+        <v>58516.750031000003</v>
       </c>
       <c r="G11" s="1">
-        <v>16.254653</v>
+        <v>16.254653000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>921.966000</v>
+        <v>921.96600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-162.891000</v>
+        <v>-162.89099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>58526.958867</v>
+        <v>58526.958867000001</v>
       </c>
       <c r="L11" s="1">
         <v>16.257489</v>
       </c>
       <c r="M11" s="1">
-        <v>942.945000</v>
+        <v>942.94500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-116.586000</v>
+        <v>-116.586</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>58537.508767</v>
+        <v>58537.508766999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.260419</v>
+        <v>16.260418999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>949.136000</v>
+        <v>949.13599999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.981000</v>
+        <v>-101.98099999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>58548.037314</v>
+        <v>58548.037314000001</v>
       </c>
       <c r="V11" s="1">
         <v>16.263344</v>
       </c>
       <c r="W11" s="1">
-        <v>955.568000</v>
+        <v>955.56799999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.771000</v>
+        <v>-88.771000000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>58558.512892</v>
+        <v>58558.512891999999</v>
       </c>
       <c r="AA11" s="1">
         <v>16.266254</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.764000</v>
+        <v>962.76400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.554900</v>
+        <v>-79.554900000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>58569.159446</v>
+        <v>58569.159445999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.269211</v>
+        <v>16.269210999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.628000</v>
+        <v>967.62800000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.490600</v>
+        <v>-79.490600000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>58579.554600</v>
+        <v>58579.554600000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.272099</v>
+        <v>16.272099000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.607000</v>
+        <v>975.60699999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.526800</v>
+        <v>-87.526799999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>58590.296458</v>
+        <v>58590.296457999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.275082</v>
+        <v>16.275082000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.817000</v>
+        <v>984.81700000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>58601.268460</v>
+        <v>58601.268459999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.278130</v>
+        <v>16.278130000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.321000</v>
+        <v>996.32100000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.350000</v>
+        <v>-124.35</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>58611.922557</v>
+        <v>58611.922556999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.281090</v>
+        <v>16.281089999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.162000</v>
+        <v>-143.16200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>58622.886591</v>
+        <v>58622.886591000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.284135</v>
+        <v>16.284134999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.080000</v>
+        <v>-228.08</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>58634.515793</v>
+        <v>58634.515792999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.287365</v>
+        <v>16.287365000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1131.860000</v>
+        <v>1131.8599999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-363.810000</v>
+        <v>-363.81</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>58645.502179</v>
+        <v>58645.502179000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.290417</v>
+        <v>16.290417000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.010000</v>
+        <v>1264.01</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-572.795000</v>
+        <v>-572.79499999999996</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>58655.931096</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.293314</v>
+        <v>16.293313999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.270000</v>
+        <v>1412.27</v>
       </c>
       <c r="BV11" s="1">
-        <v>-795.606000</v>
+        <v>-795.60599999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>58666.861893</v>
+        <v>58666.861893000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.296351</v>
+        <v>16.296351000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1573.680000</v>
+        <v>1573.68</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1027.350000</v>
+        <v>-1027.3499999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>58679.082821</v>
+        <v>58679.082821000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.299745</v>
+        <v>16.299745000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1979.790000</v>
+        <v>1979.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1568.770000</v>
+        <v>-1568.77</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>58507.053882</v>
       </c>
       <c r="B12" s="1">
-        <v>16.251959</v>
+        <v>16.251958999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>905.998000</v>
+        <v>905.99800000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-192.115000</v>
+        <v>-192.11500000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>58517.094395</v>
       </c>
       <c r="G12" s="1">
-        <v>16.254748</v>
+        <v>16.254747999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>921.714000</v>
+        <v>921.71400000000006</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.663000</v>
+        <v>-162.66300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>58527.306029</v>
+        <v>58527.306028999999</v>
       </c>
       <c r="L12" s="1">
-        <v>16.257585</v>
+        <v>16.257584999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>943.164000</v>
+        <v>943.16399999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-116.581000</v>
+        <v>-116.581</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>58537.860932</v>
+        <v>58537.860932000003</v>
       </c>
       <c r="Q12" s="1">
         <v>16.260517</v>
       </c>
       <c r="R12" s="1">
-        <v>949.183000</v>
+        <v>949.18299999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.927000</v>
+        <v>-101.92700000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>58548.452504</v>
+        <v>58548.452504000001</v>
       </c>
       <c r="V12" s="1">
-        <v>16.263459</v>
+        <v>16.263459000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>955.573000</v>
+        <v>955.57299999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.638700</v>
+        <v>-88.6387</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>58558.934450</v>
+        <v>58558.934450000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.266371</v>
+        <v>16.266370999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.780000</v>
+        <v>962.78</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.626600</v>
+        <v>-79.626599999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>58569.404965</v>
+        <v>58569.404965000002</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.269279</v>
+        <v>16.269279000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.666000</v>
+        <v>967.66600000000005</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.451600</v>
+        <v>-79.451599999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>58579.901800</v>
+        <v>58579.9018</v>
       </c>
       <c r="AK12" s="1">
         <v>16.272195</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.588000</v>
+        <v>975.58799999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.486200</v>
+        <v>-87.486199999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>58590.654074</v>
+        <v>58590.654073999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.275182</v>
+        <v>16.275182000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.825000</v>
+        <v>984.82500000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.663000</v>
+        <v>-102.663</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>58601.632028</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.278231</v>
+        <v>16.278231000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.348000</v>
+        <v>996.34799999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.329000</v>
+        <v>-124.32899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>58612.638253</v>
+        <v>58612.638252999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>16.281288</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.148000</v>
+        <v>-143.148</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>58623.611246</v>
@@ -3216,91 +3632,91 @@
         <v>16.284336</v>
       </c>
       <c r="BF12" s="1">
-        <v>1051.770000</v>
+        <v>1051.77</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.083000</v>
+        <v>-228.083</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>58634.890273</v>
+        <v>58634.890272999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.287470</v>
+        <v>16.287469999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1131.830000</v>
+        <v>1131.83</v>
       </c>
       <c r="BL12" s="1">
-        <v>-363.834000</v>
+        <v>-363.834</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>58645.922817</v>
+        <v>58645.922816999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.290534</v>
+        <v>16.290534000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1263.960000</v>
+        <v>1263.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-572.822000</v>
+        <v>-572.822</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>58656.350712</v>
+        <v>58656.350711999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.293431</v>
+        <v>16.293431000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.260000</v>
+        <v>1412.26</v>
       </c>
       <c r="BV12" s="1">
-        <v>-795.544000</v>
+        <v>-795.54399999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>58667.628708</v>
+        <v>58667.628707999997</v>
       </c>
       <c r="BY12" s="1">
         <v>16.296564</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1573.670000</v>
+        <v>1573.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1027.300000</v>
+        <v>-1027.3</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>58679.289685</v>
+        <v>58679.289685000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.299803</v>
+        <v>16.299803000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1981.420000</v>
+        <v>1981.42</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1569.320000</v>
+        <v>-1569.32</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>58507.392151</v>
       </c>
@@ -3308,148 +3724,148 @@
         <v>16.252053</v>
       </c>
       <c r="C13" s="1">
-        <v>906.150000</v>
+        <v>906.15</v>
       </c>
       <c r="D13" s="1">
-        <v>-192.108000</v>
+        <v>-192.108</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>58517.438653</v>
+        <v>58517.438652999997</v>
       </c>
       <c r="G13" s="1">
-        <v>16.254844</v>
+        <v>16.254843999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>922.025000</v>
+        <v>922.02499999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.907000</v>
+        <v>-162.90700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>58527.659181</v>
+        <v>58527.659181000003</v>
       </c>
       <c r="L13" s="1">
         <v>16.257683</v>
       </c>
       <c r="M13" s="1">
-        <v>942.919000</v>
+        <v>942.91899999999998</v>
       </c>
       <c r="N13" s="1">
-        <v>-116.536000</v>
+        <v>-116.536</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>58538.279063</v>
+        <v>58538.279063000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.260633</v>
+        <v>16.260632999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>949.121000</v>
+        <v>949.12099999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.905000</v>
+        <v>-101.905</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>58548.728278</v>
+        <v>58548.728278000002</v>
       </c>
       <c r="V13" s="1">
-        <v>16.263536</v>
+        <v>16.263535999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>955.568000</v>
+        <v>955.56799999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.626300</v>
+        <v>-88.626300000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>58559.208241</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.266447</v>
+        <v>16.266446999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.744000</v>
+        <v>962.74400000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.557500</v>
+        <v>-79.557500000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>58569.748234</v>
+        <v>58569.748233999999</v>
       </c>
       <c r="AF13" s="1">
         <v>16.269375</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.574000</v>
+        <v>967.57399999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.502200</v>
+        <v>-79.502200000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>58580.251021</v>
+        <v>58580.251020999996</v>
       </c>
       <c r="AK13" s="1">
         <v>16.272292</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.574000</v>
+        <v>975.57399999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.513300</v>
+        <v>-87.513300000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>58591.012713</v>
+        <v>58591.012712999996</v>
       </c>
       <c r="AP13" s="1">
         <v>16.275281</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.797000</v>
+        <v>984.79700000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.687000</v>
+        <v>-102.687</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>58602.363635</v>
+        <v>58602.363635000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.278434</v>
+        <v>16.278434000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.326000</v>
+        <v>996.32600000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.349000</v>
+        <v>-124.349</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>58612.997852</v>
@@ -3458,407 +3874,407 @@
         <v>16.281388</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.020000</v>
+        <v>1006.02</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.156000</v>
+        <v>-143.15600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>58623.989696</v>
+        <v>58623.989695999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.284442</v>
+        <v>16.284441999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.098000</v>
+        <v>-228.09800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>58635.265247</v>
+        <v>58635.265247000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.287574</v>
+        <v>16.287573999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1131.830000</v>
+        <v>1131.83</v>
       </c>
       <c r="BL13" s="1">
-        <v>-363.812000</v>
+        <v>-363.81200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>58646.624661</v>
+        <v>58646.624661000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.290729</v>
+        <v>16.290728999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-572.793000</v>
+        <v>-572.79300000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>58657.071859</v>
+        <v>58657.071859000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.293631</v>
+        <v>16.293631000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="BV13" s="1">
-        <v>-795.508000</v>
+        <v>-795.50800000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>58667.741301</v>
+        <v>58667.741301000002</v>
       </c>
       <c r="BY13" s="1">
         <v>16.296595</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1573.670000</v>
+        <v>1573.67</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1027.150000</v>
+        <v>-1027.1500000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>58679.805989</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.299946</v>
+        <v>16.299945999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1981.550000</v>
+        <v>1981.55</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1569.330000</v>
+        <v>-1569.33</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>58507.734888</v>
+        <v>58507.734887999999</v>
       </c>
       <c r="B14" s="1">
-        <v>16.252149</v>
+        <v>16.252148999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>906.161000</v>
+        <v>906.16099999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.191000</v>
+        <v>-192.191</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>58517.858271</v>
+        <v>58517.858270999997</v>
       </c>
       <c r="G14" s="1">
-        <v>16.254961</v>
+        <v>16.254961000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>921.989000</v>
+        <v>921.98900000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-162.911000</v>
+        <v>-162.911</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>58528.109092</v>
+        <v>58528.109091999999</v>
       </c>
       <c r="L14" s="1">
-        <v>16.257808</v>
+        <v>16.257808000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.992000</v>
+        <v>942.99199999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-116.773000</v>
+        <v>-116.773</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>58538.555790</v>
+        <v>58538.555789999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.260710</v>
+        <v>16.26071</v>
       </c>
       <c r="R14" s="1">
-        <v>949.192000</v>
+        <v>949.19200000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.944000</v>
+        <v>-101.944</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>58549.070480</v>
+        <v>58549.070480000002</v>
       </c>
       <c r="V14" s="1">
         <v>16.263631</v>
       </c>
       <c r="W14" s="1">
-        <v>955.602000</v>
+        <v>955.60199999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.652800</v>
+        <v>-88.652799999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>58559.561363</v>
+        <v>58559.561363000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.266545</v>
+        <v>16.266545000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.705000</v>
+        <v>962.70500000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.696000</v>
+        <v>-79.695999999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>58570.094405</v>
+        <v>58570.094405000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.269471</v>
+        <v>16.269470999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.650000</v>
+        <v>967.65</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.477100</v>
+        <v>-79.477099999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>58580.949382</v>
+        <v>58580.949381999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.272486</v>
+        <v>16.272486000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.547000</v>
+        <v>975.54700000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.570700</v>
+        <v>-87.570700000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>58591.736842</v>
+        <v>58591.736841999998</v>
       </c>
       <c r="AP14" s="1">
         <v>16.275482</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.796000</v>
+        <v>984.79600000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.680000</v>
+        <v>-102.68</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>58602.748026</v>
+        <v>58602.748026000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.278541</v>
+        <v>16.278541000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.329000</v>
+        <v>996.32899999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.346000</v>
+        <v>-124.346</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>58613.355497</v>
+        <v>58613.355496999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>16.281488</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.168000</v>
+        <v>-143.16800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>58624.362720</v>
+        <v>58624.362719999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.284545</v>
+        <v>16.284545000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.103000</v>
+        <v>-228.10300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>58635.945263</v>
+        <v>58635.945263000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.287763</v>
+        <v>16.287763000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1131.860000</v>
+        <v>1131.8599999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-363.828000</v>
+        <v>-363.82799999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>58646.739238</v>
+        <v>58646.739238000002</v>
       </c>
       <c r="BO14" s="1">
         <v>16.290761</v>
       </c>
       <c r="BP14" s="1">
-        <v>1263.980000</v>
+        <v>1263.98</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-572.811000</v>
+        <v>-572.81100000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>58657.179490</v>
+        <v>58657.179490000002</v>
       </c>
       <c r="BT14" s="1">
         <v>16.293661</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.330000</v>
+        <v>1412.33</v>
       </c>
       <c r="BV14" s="1">
-        <v>-795.324000</v>
+        <v>-795.32399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>58668.164419</v>
+        <v>58668.164419000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.296712</v>
+        <v>16.296711999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1573.760000</v>
+        <v>1573.76</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1027.330000</v>
+        <v>-1027.33</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>58680.358037</v>
+        <v>58680.358036999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.300099</v>
+        <v>16.300098999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1980.370000</v>
+        <v>1980.37</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1569.430000</v>
+        <v>-1569.43</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>58508.154504</v>
+        <v>58508.154503999998</v>
       </c>
       <c r="B15" s="1">
-        <v>16.252265</v>
+        <v>16.252265000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>906.137000</v>
+        <v>906.13699999999994</v>
       </c>
       <c r="D15" s="1">
-        <v>-192.115000</v>
+        <v>-192.11500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>58518.145914</v>
+        <v>58518.145914000001</v>
       </c>
       <c r="G15" s="1">
-        <v>16.255041</v>
+        <v>16.255040999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>922.236000</v>
+        <v>922.23599999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-162.306000</v>
+        <v>-162.30600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>58528.387841</v>
+        <v>58528.387841000003</v>
       </c>
       <c r="L15" s="1">
-        <v>16.257886</v>
+        <v>16.257885999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>943.101000</v>
+        <v>943.101</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.647000</v>
+        <v>-116.64700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>58538.906958</v>
@@ -3867,468 +4283,468 @@
         <v>16.260807</v>
       </c>
       <c r="R15" s="1">
-        <v>949.186000</v>
+        <v>949.18600000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.961000</v>
+        <v>-101.961</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>58549.413219</v>
+        <v>58549.413219000002</v>
       </c>
       <c r="V15" s="1">
-        <v>16.263726</v>
+        <v>16.263725999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>955.485000</v>
+        <v>955.48500000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.807000</v>
+        <v>-88.807000000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>58559.908564</v>
+        <v>58559.908563999998</v>
       </c>
       <c r="AA15" s="1">
         <v>16.266641</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.729000</v>
+        <v>962.72900000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.620200</v>
+        <v>-79.620199999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>58570.779380</v>
+        <v>58570.77938</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.269661</v>
+        <v>16.269660999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.592000</v>
+        <v>967.59199999999998</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.451000</v>
+        <v>-79.450999999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>58581.298039</v>
+        <v>58581.298039000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.272583</v>
+        <v>16.272583000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.565000</v>
+        <v>975.56500000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.556700</v>
+        <v>-87.556700000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>58592.117272</v>
+        <v>58592.117272000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.275588</v>
+        <v>16.275587999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.804000</v>
+        <v>984.80399999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.661000</v>
+        <v>-102.661</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>58603.112586</v>
+        <v>58603.112586000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.278642</v>
+        <v>16.278642000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.353000</v>
+        <v>996.35299999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.309000</v>
+        <v>-124.309</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>58614.022624</v>
+        <v>58614.022623999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.281673</v>
+        <v>16.281673000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.165000</v>
+        <v>-143.16499999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>58625.043197</v>
+        <v>58625.043196999999</v>
       </c>
       <c r="BE15" s="1">
         <v>16.284734</v>
       </c>
       <c r="BF15" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.101000</v>
+        <v>-228.101</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>58636.059375</v>
+        <v>58636.059374999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.287794</v>
+        <v>16.287794000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1131.850000</v>
+        <v>1131.8499999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-363.822000</v>
+        <v>-363.822</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>58647.162287</v>
+        <v>58647.162286999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.290878</v>
+        <v>16.290877999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.020000</v>
+        <v>1264.02</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-572.788000</v>
+        <v>-572.78800000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>58657.622913</v>
+        <v>58657.622912999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.293784</v>
+        <v>16.293783999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.200000</v>
+        <v>1412.2</v>
       </c>
       <c r="BV15" s="1">
-        <v>-795.264000</v>
+        <v>-795.26400000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>58668.579574</v>
+        <v>58668.579574000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.296828</v>
+        <v>16.296828000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1573.740000</v>
+        <v>1573.74</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1027.360000</v>
+        <v>-1027.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>58680.884330</v>
+        <v>58680.884330000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.300246</v>
+        <v>16.300246000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1981.840000</v>
+        <v>1981.84</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1568.390000</v>
+        <v>-1568.39</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>58508.431767</v>
+        <v>58508.431767000002</v>
       </c>
       <c r="B16" s="1">
-        <v>16.252342</v>
+        <v>16.252341999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>906.153000</v>
+        <v>906.15300000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-192.224000</v>
+        <v>-192.22399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>58518.492617</v>
+        <v>58518.492617000004</v>
       </c>
       <c r="G16" s="1">
-        <v>16.255137</v>
+        <v>16.255137000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>921.569000</v>
+        <v>921.56899999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-162.700000</v>
+        <v>-162.69999999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>58528.724587</v>
+        <v>58528.724586999997</v>
       </c>
       <c r="L16" s="1">
-        <v>16.257979</v>
+        <v>16.257978999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>943.004000</v>
+        <v>943.00400000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.622000</v>
+        <v>-116.622</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>58539.253200</v>
+        <v>58539.253199999999</v>
       </c>
       <c r="Q16" s="1">
         <v>16.260904</v>
       </c>
       <c r="R16" s="1">
-        <v>949.198000</v>
+        <v>949.19799999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.959000</v>
+        <v>-101.959</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>58550.106160</v>
+        <v>58550.106160000003</v>
       </c>
       <c r="V16" s="1">
         <v>16.263918</v>
       </c>
       <c r="W16" s="1">
-        <v>955.627000</v>
+        <v>955.62699999999995</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.686200</v>
+        <v>-88.686199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>58560.606930</v>
+        <v>58560.606930000002</v>
       </c>
       <c r="AA16" s="1">
         <v>16.266835</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.786000</v>
+        <v>962.78599999999994</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.662300</v>
+        <v>-79.662300000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>58571.121621</v>
+        <v>58571.121620999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.269756</v>
+        <v>16.269756000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.636000</v>
+        <v>967.63599999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.461400</v>
+        <v>-79.461399999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>58581.646727</v>
+        <v>58581.646726999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.272680</v>
+        <v>16.272680000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.548000</v>
+        <v>975.548</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.558100</v>
+        <v>-87.558099999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>58592.476481</v>
+        <v>58592.476480999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.275688</v>
+        <v>16.275687999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.838000</v>
+        <v>984.83799999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.713000</v>
+        <v>-102.71299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>58603.787186</v>
+        <v>58603.787186000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.278830</v>
+        <v>16.278829999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.358000</v>
+        <v>996.35799999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.356000</v>
+        <v>-124.35599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>58614.430298</v>
+        <v>58614.430297999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>16.281786</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.020000</v>
+        <v>1006.02</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.173000</v>
+        <v>-143.173</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>58625.445948</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.284846</v>
+        <v>16.284846000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1051.720000</v>
+        <v>1051.72</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.090000</v>
+        <v>-228.09</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>58636.417982</v>
+        <v>58636.417981999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.287894</v>
+        <v>16.287894000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1131.870000</v>
+        <v>1131.8699999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-363.839000</v>
+        <v>-363.839</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>58647.560111</v>
+        <v>58647.560110999999</v>
       </c>
       <c r="BO16" s="1">
         <v>16.290989</v>
       </c>
       <c r="BP16" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-572.839000</v>
+        <v>-572.83900000000006</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>58658.035584</v>
+        <v>58658.035583999997</v>
       </c>
       <c r="BT16" s="1">
         <v>16.293899</v>
       </c>
       <c r="BU16" s="1">
-        <v>1412.100000</v>
+        <v>1412.1</v>
       </c>
       <c r="BV16" s="1">
-        <v>-795.302000</v>
+        <v>-795.30200000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>58669.024979</v>
+        <v>58669.024979000002</v>
       </c>
       <c r="BY16" s="1">
         <v>16.296951</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1573.650000</v>
+        <v>1573.65</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1027.350000</v>
+        <v>-1027.3499999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>58681.401982</v>
+        <v>58681.401982000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.300389</v>
+        <v>16.300388999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1980.680000</v>
+        <v>1980.68</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1567.340000</v>
+        <v>-1567.34</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>58508.774007</v>
       </c>
@@ -4336,13 +4752,13 @@
         <v>16.252437</v>
       </c>
       <c r="C17" s="1">
-        <v>906.163000</v>
+        <v>906.16300000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-192.140000</v>
+        <v>-192.14</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>58518.839818</v>
@@ -4351,88 +4767,88 @@
         <v>16.255233</v>
       </c>
       <c r="H17" s="1">
-        <v>922.315000</v>
+        <v>922.31500000000005</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.143000</v>
+        <v>-162.143</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>58529.415514</v>
       </c>
       <c r="L17" s="1">
-        <v>16.258171</v>
+        <v>16.258171000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>943.054000</v>
+        <v>943.05399999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-116.857000</v>
+        <v>-116.857</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>58539.952579</v>
+        <v>58539.952578999997</v>
       </c>
       <c r="Q17" s="1">
         <v>16.261098</v>
       </c>
       <c r="R17" s="1">
-        <v>949.135000</v>
+        <v>949.13499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.977000</v>
+        <v>-101.977</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>58550.444897</v>
+        <v>58550.444897000001</v>
       </c>
       <c r="V17" s="1">
-        <v>16.264012</v>
+        <v>16.264012000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>955.503000</v>
+        <v>955.50300000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.723900</v>
+        <v>-88.7239</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>58560.953137</v>
+        <v>58560.953136999997</v>
       </c>
       <c r="AA17" s="1">
         <v>16.266931</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.714000</v>
+        <v>962.71400000000006</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.660000</v>
+        <v>-79.66</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>58571.465843</v>
+        <v>58571.465842999998</v>
       </c>
       <c r="AF17" s="1">
         <v>16.269852</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.647000</v>
+        <v>967.64700000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.474700</v>
+        <v>-79.474699999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>58582.316325</v>
@@ -4441,13 +4857,13 @@
         <v>16.272866</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.592000</v>
+        <v>975.59199999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.555900</v>
+        <v>-87.555899999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>58593.178216</v>
@@ -4456,103 +4872,103 @@
         <v>16.275883</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.812000</v>
+        <v>984.81200000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.693000</v>
+        <v>-102.693</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>58604.238999</v>
+        <v>58604.238999000001</v>
       </c>
       <c r="AU17" s="1">
         <v>16.278955</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.332000</v>
+        <v>996.33199999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.337000</v>
+        <v>-124.337</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>58614.820650</v>
+        <v>58614.820650000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.281895</v>
+        <v>16.281894999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.171000</v>
+        <v>-143.17099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>58625.832333</v>
+        <v>58625.832332999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.284953</v>
+        <v>16.284953000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.079000</v>
+        <v>-228.07900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>58636.790445</v>
+        <v>58636.790444999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>16.287997</v>
+        <v>16.287997000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1131.840000</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-363.811000</v>
+        <v>-363.81099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>58647.983694</v>
+        <v>58647.983694000002</v>
       </c>
       <c r="BO17" s="1">
         <v>16.291107</v>
       </c>
       <c r="BP17" s="1">
-        <v>1263.960000</v>
+        <v>1263.96</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-572.806000</v>
+        <v>-572.80600000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>58658.503312</v>
+        <v>58658.503312000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.294029</v>
+        <v>16.294028999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1412.140000</v>
+        <v>1412.14</v>
       </c>
       <c r="BV17" s="1">
-        <v>-795.125000</v>
+        <v>-795.125</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>58669.449558</v>
@@ -4561,407 +4977,407 @@
         <v>16.297069</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1573.580000</v>
+        <v>1573.58</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1027.160000</v>
+        <v>-1027.1600000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>58681.923410</v>
+        <v>58681.923410000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.300534</v>
+        <v>16.300533999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1979.790000</v>
+        <v>1979.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1568.510000</v>
+        <v>-1568.51</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>58509.117271</v>
+        <v>58509.117271000003</v>
       </c>
       <c r="B18" s="1">
         <v>16.252533</v>
       </c>
       <c r="C18" s="1">
-        <v>906.144000</v>
+        <v>906.14400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.195000</v>
+        <v>-192.19499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>58519.538680</v>
+        <v>58519.538679999998</v>
       </c>
       <c r="G18" s="1">
-        <v>16.255427</v>
+        <v>16.255427000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>922.229000</v>
+        <v>922.22900000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.655000</v>
+        <v>-162.655</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>58529.763242</v>
+        <v>58529.763242000001</v>
       </c>
       <c r="L18" s="1">
-        <v>16.258268</v>
+        <v>16.258268000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.987000</v>
+        <v>942.98699999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-116.720000</v>
+        <v>-116.72</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>58540.301251</v>
+        <v>58540.301250999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.261195</v>
+        <v>16.261195000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.152000</v>
+        <v>949.15200000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.928000</v>
+        <v>-101.928</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>58550.789118</v>
+        <v>58550.789118000001</v>
       </c>
       <c r="V18" s="1">
         <v>16.264108</v>
       </c>
       <c r="W18" s="1">
-        <v>955.504000</v>
+        <v>955.50400000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.687900</v>
+        <v>-88.687899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>58561.606865</v>
+        <v>58561.606865000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.267113</v>
+        <v>16.267112999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.741000</v>
+        <v>962.74099999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.641000</v>
+        <v>-79.641000000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>58572.113650</v>
+        <v>58572.113649999999</v>
       </c>
       <c r="AF18" s="1">
         <v>16.270032</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.619000</v>
+        <v>967.61900000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.436400</v>
+        <v>-79.436400000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>58582.694155</v>
+        <v>58582.694154999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.272971</v>
+        <v>16.272970999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.600000</v>
+        <v>975.6</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.550900</v>
+        <v>-87.550899999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>58593.557654</v>
+        <v>58593.557653999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.275988</v>
+        <v>16.275988000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.798000</v>
+        <v>984.798</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.695000</v>
+        <v>-102.69499999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>58604.606535</v>
+        <v>58604.606534999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.279057</v>
+        <v>16.279057000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.333000</v>
+        <v>996.33299999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.344000</v>
+        <v>-124.34399999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>58615.178267</v>
+        <v>58615.178267000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.281994</v>
+        <v>16.281994000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.164000</v>
+        <v>-143.16399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>58626.401771</v>
+        <v>58626.401770999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.285112</v>
+        <v>16.285112000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.089000</v>
+        <v>-228.089</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>58637.225436</v>
+        <v>58637.225436000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.288118</v>
+        <v>16.288118000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1131.840000</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-363.812000</v>
+        <v>-363.81200000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>58648.379005</v>
+        <v>58648.379005000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.291216</v>
+        <v>16.291215999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-572.796000</v>
+        <v>-572.79600000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>58658.867871</v>
+        <v>58658.867871000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.294130</v>
+        <v>16.294129999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1412.010000</v>
+        <v>1412.01</v>
       </c>
       <c r="BV18" s="1">
-        <v>-795.129000</v>
+        <v>-795.12900000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>58669.873632</v>
+        <v>58669.873632000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.297187</v>
+        <v>16.297187000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1573.710000</v>
+        <v>1573.71</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1027.160000</v>
+        <v>-1027.1600000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>58682.440240</v>
+        <v>58682.440240000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.300678</v>
+        <v>16.300678000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1980.010000</v>
+        <v>1980.01</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1568.120000</v>
+        <v>-1568.12</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>58509.797749</v>
+        <v>58509.797748999998</v>
       </c>
       <c r="B19" s="1">
-        <v>16.252722</v>
+        <v>16.252721999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>906.068000</v>
+        <v>906.06799999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.297000</v>
+        <v>-192.297</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>58519.882408</v>
+        <v>58519.882407999998</v>
       </c>
       <c r="G19" s="1">
         <v>16.255523</v>
       </c>
       <c r="H19" s="1">
-        <v>921.754000</v>
+        <v>921.75400000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-162.661000</v>
+        <v>-162.661</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>58530.111402</v>
+        <v>58530.111402000002</v>
       </c>
       <c r="L19" s="1">
         <v>16.258364</v>
       </c>
       <c r="M19" s="1">
-        <v>943.031000</v>
+        <v>943.03099999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-116.719000</v>
+        <v>-116.71899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>58540.647962</v>
+        <v>58540.647962000003</v>
       </c>
       <c r="Q19" s="1">
         <v>16.261291</v>
       </c>
       <c r="R19" s="1">
-        <v>949.214000</v>
+        <v>949.21400000000006</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.896000</v>
+        <v>-101.896</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>58551.450835</v>
+        <v>58551.450835000003</v>
       </c>
       <c r="V19" s="1">
-        <v>16.264292</v>
+        <v>16.264292000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>955.479000</v>
+        <v>955.47900000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.697700</v>
+        <v>-88.697699999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>58561.998741</v>
+        <v>58561.998741000003</v>
       </c>
       <c r="AA19" s="1">
         <v>16.267222</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.684000</v>
+        <v>962.68399999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.622600</v>
+        <v>-79.622600000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>58572.496068</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.270138</v>
+        <v>16.270137999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.664000</v>
+        <v>967.66399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.455800</v>
+        <v>-79.455799999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>58583.038501</v>
+        <v>58583.038501000003</v>
       </c>
       <c r="AK19" s="1">
         <v>16.273066</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.557000</v>
+        <v>975.55700000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.522400</v>
+        <v>-87.522400000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>58593.914804</v>
@@ -4970,814 +5386,814 @@
         <v>16.276087</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.810000</v>
+        <v>984.81</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.673000</v>
+        <v>-102.673</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>58604.972086</v>
+        <v>58604.972086000002</v>
       </c>
       <c r="AU19" s="1">
         <v>16.279159</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.310000</v>
+        <v>996.31</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.336000</v>
+        <v>-124.336</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>58615.601849</v>
+        <v>58615.601848999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.282112</v>
+        <v>16.282112000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.020000</v>
+        <v>1006.02</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.145000</v>
+        <v>-143.14500000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>58626.555034</v>
+        <v>58626.555033999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.285154</v>
+        <v>16.285153999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.100000</v>
+        <v>-228.1</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>58637.551310</v>
+        <v>58637.551310000003</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.288209</v>
+        <v>16.288208999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1131.840000</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-363.807000</v>
+        <v>-363.80700000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>58648.803054</v>
+        <v>58648.803054000004</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.291334</v>
+        <v>16.291333999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1263.990000</v>
+        <v>1263.99</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-572.836000</v>
+        <v>-572.83600000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>58659.283023</v>
+        <v>58659.283023000004</v>
       </c>
       <c r="BT19" s="1">
         <v>16.294245</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.940000</v>
+        <v>1411.94</v>
       </c>
       <c r="BV19" s="1">
-        <v>-795.144000</v>
+        <v>-795.14400000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>58670.324464</v>
+        <v>58670.324463999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.297312</v>
+        <v>16.297312000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1573.670000</v>
+        <v>1573.67</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1027.360000</v>
+        <v>-1027.3599999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>58682.993279</v>
+        <v>58682.993279000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.300831</v>
+        <v>16.300830999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1980.520000</v>
+        <v>1980.52</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1567.090000</v>
+        <v>-1567.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>58510.141976</v>
+        <v>58510.141975999999</v>
       </c>
       <c r="B20" s="1">
         <v>16.252817</v>
       </c>
       <c r="C20" s="1">
-        <v>905.905000</v>
+        <v>905.90499999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-192.309000</v>
+        <v>-192.309</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>58520.230103</v>
+        <v>58520.230103000002</v>
       </c>
       <c r="G20" s="1">
-        <v>16.255619</v>
+        <v>16.255618999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>921.835000</v>
+        <v>921.83500000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-162.846000</v>
+        <v>-162.846</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>58530.774056</v>
+        <v>58530.774056000002</v>
       </c>
       <c r="L20" s="1">
-        <v>16.258548</v>
+        <v>16.258548000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.920000</v>
+        <v>942.92</v>
       </c>
       <c r="N20" s="1">
-        <v>-116.918000</v>
+        <v>-116.91800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>58541.319499</v>
+        <v>58541.319498999997</v>
       </c>
       <c r="Q20" s="1">
         <v>16.261478</v>
       </c>
       <c r="R20" s="1">
-        <v>949.250000</v>
+        <v>949.25</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>58551.818353</v>
+        <v>58551.818353000002</v>
       </c>
       <c r="V20" s="1">
-        <v>16.264394</v>
+        <v>16.264393999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>955.495000</v>
+        <v>955.495</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.610100</v>
+        <v>-88.610100000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>58562.349872</v>
+        <v>58562.349871999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.267319</v>
+        <v>16.267319000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.705000</v>
+        <v>962.70500000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.675500</v>
+        <v>-79.6755</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>58572.841746</v>
+        <v>58572.841745999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.270234</v>
+        <v>16.270233999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.520000</v>
+        <v>967.52</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.368700</v>
+        <v>-79.368700000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>58583.388707</v>
+        <v>58583.388706999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.273164</v>
+        <v>16.273164000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.589000</v>
+        <v>975.58900000000006</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.548800</v>
+        <v>-87.5488</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>58594.343086</v>
+        <v>58594.343086000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.276206</v>
+        <v>16.276205999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.823000</v>
+        <v>984.82299999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.671000</v>
+        <v>-102.67100000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>58605.392045</v>
+        <v>58605.392045000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.279276</v>
+        <v>16.279275999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.305000</v>
+        <v>996.30499999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.334000</v>
+        <v>-124.334</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>58615.894516</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.282193</v>
+        <v>16.282192999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.040000</v>
+        <v>1006.04</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.157000</v>
+        <v>-143.15700000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>58626.917578</v>
+        <v>58626.917578000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.285255</v>
+        <v>16.285254999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.084000</v>
+        <v>-228.084</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>58637.939677</v>
+        <v>58637.939677000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.288317</v>
+        <v>16.288316999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1131.850000</v>
+        <v>1131.8499999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-363.850000</v>
+        <v>-363.85</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>58649.195884</v>
+        <v>58649.195884000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.291443</v>
+        <v>16.291443000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-572.840000</v>
+        <v>-572.84</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>58659.718510</v>
+        <v>58659.718509999999</v>
       </c>
       <c r="BT20" s="1">
         <v>16.294366</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.870000</v>
+        <v>1411.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-795.028000</v>
+        <v>-795.02800000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>58670.753007</v>
+        <v>58670.753006999999</v>
       </c>
       <c r="BY20" s="1">
         <v>16.297431</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1573.750000</v>
+        <v>1573.75</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1027.180000</v>
+        <v>-1027.18</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>58683.523039</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.300979</v>
+        <v>16.300979000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1979.980000</v>
+        <v>1979.98</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1568.740000</v>
+        <v>-1568.74</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>58510.485699</v>
+        <v>58510.485698999997</v>
       </c>
       <c r="B21" s="1">
-        <v>16.252913</v>
+        <v>16.252912999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>905.952000</v>
+        <v>905.952</v>
       </c>
       <c r="D21" s="1">
-        <v>-192.090000</v>
+        <v>-192.09</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>58520.888296</v>
+        <v>58520.888295999997</v>
       </c>
       <c r="G21" s="1">
-        <v>16.255802</v>
+        <v>16.255801999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>922.185000</v>
+        <v>922.18499999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-162.961000</v>
+        <v>-162.96100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>58531.148041</v>
       </c>
       <c r="L21" s="1">
-        <v>16.258652</v>
+        <v>16.258652000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>942.837000</v>
+        <v>942.83699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-116.773000</v>
+        <v>-116.773</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>58541.695467</v>
+        <v>58541.695466999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.261582</v>
+        <v>16.261582000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>949.245000</v>
+        <v>949.245</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.926000</v>
+        <v>-101.926</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>58552.163592</v>
+        <v>58552.163591999997</v>
       </c>
       <c r="V21" s="1">
-        <v>16.264490</v>
+        <v>16.264489999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.603000</v>
+        <v>955.60299999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.688300</v>
+        <v>-88.688299999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>58562.699551</v>
+        <v>58562.699550999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.267417</v>
+        <v>16.267416999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.689000</v>
+        <v>962.68899999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.714500</v>
+        <v>-79.714500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>58573.188979</v>
+        <v>58573.188978999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.270330</v>
+        <v>16.270330000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.465000</v>
+        <v>967.46500000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.482800</v>
+        <v>-79.482799999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>58583.820692</v>
+        <v>58583.820692000001</v>
       </c>
       <c r="AK21" s="1">
         <v>16.273284</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.573000</v>
+        <v>975.57299999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.583600</v>
+        <v>-87.583600000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>58594.638932</v>
+        <v>58594.638932000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.276289</v>
+        <v>16.276288999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.821000</v>
+        <v>984.82100000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.706000</v>
+        <v>-102.706</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>58605.700215</v>
+        <v>58605.700214999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.279361</v>
+        <v>16.279361000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.323000</v>
+        <v>996.32299999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.344000</v>
+        <v>-124.34399999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>58616.255608</v>
+        <v>58616.255607999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.282293</v>
+        <v>16.282292999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.050000</v>
+        <v>1006.05</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.154000</v>
+        <v>-143.154</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>58627.281146</v>
+        <v>58627.281146000001</v>
       </c>
       <c r="BE21" s="1">
         <v>16.285356</v>
       </c>
       <c r="BF21" s="1">
-        <v>1051.760000</v>
+        <v>1051.76</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.080000</v>
+        <v>-228.08</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>58638.316140</v>
+        <v>58638.316140000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>16.288421</v>
       </c>
       <c r="BK21" s="1">
-        <v>1131.860000</v>
+        <v>1131.8599999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-363.818000</v>
+        <v>-363.81799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>58649.622445</v>
+        <v>58649.622445000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.291562</v>
+        <v>16.291561999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1263.970000</v>
+        <v>1263.97</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-572.812000</v>
+        <v>-572.81200000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>58660.114841</v>
+        <v>58660.114841000002</v>
       </c>
       <c r="BT21" s="1">
         <v>16.294476</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.820000</v>
+        <v>1411.82</v>
       </c>
       <c r="BV21" s="1">
-        <v>-795.064000</v>
+        <v>-795.06399999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>58671.209335</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.297558</v>
+        <v>16.297557999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1573.660000</v>
+        <v>1573.66</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1027.110000</v>
+        <v>-1027.1099999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>58684.037887</v>
+        <v>58684.037886999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.301122</v>
+        <v>16.301121999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1981.380000</v>
+        <v>1981.38</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1568.800000</v>
+        <v>-1568.8</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>58511.154804</v>
+        <v>58511.154803999998</v>
       </c>
       <c r="B22" s="1">
-        <v>16.253099</v>
+        <v>16.253098999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>905.935000</v>
+        <v>905.93499999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-192.271000</v>
+        <v>-192.27099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>58521.264793</v>
+        <v>58521.264793000002</v>
       </c>
       <c r="G22" s="1">
-        <v>16.255907</v>
+        <v>16.255907000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>921.806000</v>
+        <v>921.80600000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-162.894000</v>
+        <v>-162.89400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>58531.497737</v>
+        <v>58531.497736999998</v>
       </c>
       <c r="L22" s="1">
-        <v>16.258749</v>
+        <v>16.258749000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>942.874000</v>
+        <v>942.87400000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.732000</v>
+        <v>-116.732</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>58542.042666</v>
+        <v>58542.042666000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.261679</v>
+        <v>16.261679000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>949.183000</v>
+        <v>949.18299999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>58552.512716</v>
+        <v>58552.512715999997</v>
       </c>
       <c r="V22" s="1">
-        <v>16.264587</v>
+        <v>16.264586999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>955.614000</v>
+        <v>955.61400000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.752400</v>
+        <v>-88.752399999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>58563.143470</v>
+        <v>58563.143470000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.267540</v>
+        <v>16.26754</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.676000</v>
+        <v>962.67600000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.699700</v>
+        <v>-79.699700000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>58573.621985</v>
+        <v>58573.621984999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.270451</v>
+        <v>16.270451000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.679000</v>
+        <v>967.67899999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.429000</v>
+        <v>-79.429000000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>58584.096002</v>
+        <v>58584.096001999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.273360</v>
+        <v>16.27336</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.591000</v>
+        <v>975.59100000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.568500</v>
+        <v>-87.5685</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>58594.997540</v>
+        <v>58594.997539999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.276388</v>
+        <v>16.276388000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.819000</v>
+        <v>984.81899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.678000</v>
+        <v>-102.678</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>58606.063814</v>
+        <v>58606.063814000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.279462</v>
+        <v>16.279461999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.327000</v>
+        <v>996.327</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.343000</v>
+        <v>-124.343</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>58616.613687</v>
+        <v>58616.613686999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.282393</v>
+        <v>16.282392999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.145000</v>
+        <v>-143.14500000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>58628.003353</v>
@@ -5786,13 +6202,13 @@
         <v>16.285556</v>
       </c>
       <c r="BF22" s="1">
-        <v>1051.750000</v>
+        <v>1051.75</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.115000</v>
+        <v>-228.11500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>58639.065595</v>
@@ -5801,28 +6217,28 @@
         <v>16.288629</v>
       </c>
       <c r="BK22" s="1">
-        <v>1131.820000</v>
+        <v>1131.82</v>
       </c>
       <c r="BL22" s="1">
-        <v>-363.791000</v>
+        <v>-363.791</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>58650.015275</v>
+        <v>58650.015274999998</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.291671</v>
+        <v>16.291671000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1263.950000</v>
+        <v>1263.95</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-572.805000</v>
+        <v>-572.80499999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>58660.528477</v>
@@ -5831,422 +6247,422 @@
         <v>16.294591</v>
       </c>
       <c r="BU22" s="1">
-        <v>1411.680000</v>
+        <v>1411.68</v>
       </c>
       <c r="BV22" s="1">
-        <v>-795.134000</v>
+        <v>-795.13400000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>58671.661678</v>
+        <v>58671.661677999997</v>
       </c>
       <c r="BY22" s="1">
         <v>16.297684</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1573.680000</v>
+        <v>1573.68</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1027.230000</v>
+        <v>-1027.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>58684.876093</v>
+        <v>58684.876092999999</v>
       </c>
       <c r="CD22" s="1">
         <v>16.301354</v>
       </c>
       <c r="CE22" s="1">
-        <v>1981.310000</v>
+        <v>1981.31</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1567.480000</v>
+        <v>-1567.48</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>58511.510930</v>
+        <v>58511.510929999997</v>
       </c>
       <c r="B23" s="1">
         <v>16.253197</v>
       </c>
       <c r="C23" s="1">
-        <v>905.856000</v>
+        <v>905.85599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.234000</v>
+        <v>-192.23400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>58521.609016</v>
+        <v>58521.609016000002</v>
       </c>
       <c r="G23" s="1">
         <v>16.256003</v>
       </c>
       <c r="H23" s="1">
-        <v>922.098000</v>
+        <v>922.09799999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.462000</v>
+        <v>-162.46199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>58531.843927</v>
+        <v>58531.843927000002</v>
       </c>
       <c r="L23" s="1">
-        <v>16.258846</v>
+        <v>16.258845999999998</v>
       </c>
       <c r="M23" s="1">
-        <v>942.914000</v>
+        <v>942.91399999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-116.761000</v>
+        <v>-116.761</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>58542.391353</v>
+        <v>58542.391352999999</v>
       </c>
       <c r="Q23" s="1">
         <v>16.261775</v>
       </c>
       <c r="R23" s="1">
-        <v>949.191000</v>
+        <v>949.19100000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.921000</v>
+        <v>-101.92100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>58552.935839</v>
+        <v>58552.935838999998</v>
       </c>
       <c r="V23" s="1">
-        <v>16.264704</v>
+        <v>16.264703999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>955.497000</v>
+        <v>955.49699999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.613300</v>
+        <v>-88.613299999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>58563.408366</v>
+        <v>58563.408366000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.267613</v>
+        <v>16.267613000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.752000</v>
+        <v>962.75199999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.695100</v>
+        <v>-79.695099999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>58573.892308</v>
+        <v>58573.892308000002</v>
       </c>
       <c r="AF23" s="1">
         <v>16.270526</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.574000</v>
+        <v>967.57399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.446400</v>
+        <v>-79.446399999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>58584.443994</v>
+        <v>58584.443994000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.273457</v>
+        <v>16.273457000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.617000</v>
+        <v>975.61699999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.550400</v>
+        <v>-87.550399999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>58595.357637</v>
+        <v>58595.357637000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.276488</v>
+        <v>16.276488000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.804000</v>
+        <v>984.80399999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.711000</v>
+        <v>-102.711</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>58606.429865</v>
+        <v>58606.429864999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.279564</v>
+        <v>16.279564000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.319000</v>
+        <v>996.31899999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.368000</v>
+        <v>-124.36799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>58617.335864</v>
+        <v>58617.335864000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.282593</v>
+        <v>16.282592999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.148000</v>
+        <v>-143.148</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>58628.361434</v>
+        <v>58628.361433999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.285656</v>
+        <v>16.285655999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.082000</v>
+        <v>-228.08199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>58639.443582</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.288734</v>
+        <v>16.288734000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1131.850000</v>
+        <v>1131.8499999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-363.798000</v>
+        <v>-363.798</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>58650.434927</v>
+        <v>58650.434927000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.291787</v>
+        <v>16.291786999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-572.804000</v>
+        <v>-572.80399999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>58661.288874</v>
+        <v>58661.288873999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.294802</v>
+        <v>16.294802000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1411.510000</v>
+        <v>1411.51</v>
       </c>
       <c r="BV23" s="1">
-        <v>-795.191000</v>
+        <v>-795.19100000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>58672.417087</v>
+        <v>58672.417087000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.297894</v>
+        <v>16.297893999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1573.670000</v>
+        <v>1573.67</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1027.240000</v>
+        <v>-1027.24</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>58685.108719</v>
+        <v>58685.108719000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.301419</v>
+        <v>16.301418999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1980.060000</v>
+        <v>1980.06</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1568.630000</v>
+        <v>-1568.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>58511.851683</v>
+        <v>58511.851683000001</v>
       </c>
       <c r="B24" s="1">
-        <v>16.253292</v>
+        <v>16.253291999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>905.983000</v>
+        <v>905.98299999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.298000</v>
+        <v>-192.298</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>58521.951221</v>
+        <v>58521.951221000003</v>
       </c>
       <c r="G24" s="1">
-        <v>16.256098</v>
+        <v>16.256098000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>921.770000</v>
+        <v>921.77</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.015000</v>
+        <v>-163.01499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>58532.267052</v>
+        <v>58532.267052000003</v>
       </c>
       <c r="L24" s="1">
-        <v>16.258963</v>
+        <v>16.258963000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.836000</v>
+        <v>942.83600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-116.858000</v>
+        <v>-116.858</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>58542.822874</v>
+        <v>58542.822873999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.261895</v>
+        <v>16.261894999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>949.247000</v>
+        <v>949.24699999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.871000</v>
+        <v>-101.871</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>58553.216539</v>
+        <v>58553.216539000001</v>
       </c>
       <c r="V24" s="1">
         <v>16.264782</v>
       </c>
       <c r="W24" s="1">
-        <v>955.593000</v>
+        <v>955.59299999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.617500</v>
+        <v>-88.617500000000007</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>58563.756526</v>
+        <v>58563.756525999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.267710</v>
+        <v>16.267710000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.678000</v>
+        <v>962.678</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.628400</v>
+        <v>-79.628399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>58574.236535</v>
+        <v>58574.236535000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.270621</v>
+        <v>16.270620999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.588000</v>
+        <v>967.58799999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.454300</v>
+        <v>-79.454300000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>58584.793879</v>
+        <v>58584.793878999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.273554</v>
+        <v>16.273554000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.561000</v>
+        <v>975.56100000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.602600</v>
+        <v>-87.602599999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>58596.076233</v>
@@ -6255,180 +6671,180 @@
         <v>16.276688</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.798000</v>
+        <v>984.798</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.684000</v>
+        <v>-102.684</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>58607.157489</v>
+        <v>58607.157488999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.279766</v>
+        <v>16.279765999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.335000</v>
+        <v>996.33500000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.340000</v>
+        <v>-124.34</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>58617.709879</v>
+        <v>58617.709879000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.282697</v>
+        <v>16.282696999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.030000</v>
+        <v>1006.03</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.160000</v>
+        <v>-143.16</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>58628.724999</v>
+        <v>58628.724998999998</v>
       </c>
       <c r="BE24" s="1">
         <v>16.285757</v>
       </c>
       <c r="BF24" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.090000</v>
+        <v>-228.09</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>58639.818553</v>
+        <v>58639.818552999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.288838</v>
+        <v>16.288837999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1131.850000</v>
+        <v>1131.8499999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-363.830000</v>
+        <v>-363.83</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>58651.147644</v>
+        <v>58651.147643999997</v>
       </c>
       <c r="BO24" s="1">
         <v>16.291985</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.020000</v>
+        <v>1264.02</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-572.792000</v>
+        <v>-572.79200000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>58661.397964</v>
+        <v>58661.397964000003</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.294833</v>
+        <v>16.294833000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1411.460000</v>
+        <v>1411.46</v>
       </c>
       <c r="BV24" s="1">
-        <v>-795.297000</v>
+        <v>-795.29700000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>58672.563439</v>
+        <v>58672.563438999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.297934</v>
+        <v>16.297934000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1573.620000</v>
+        <v>1573.62</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1027.260000</v>
+        <v>-1027.26</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>58685.642412</v>
+        <v>58685.642412000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.301567</v>
+        <v>16.301566999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1981.760000</v>
+        <v>1981.76</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1568.450000</v>
+        <v>-1568.45</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>58512.408721</v>
       </c>
       <c r="B25" s="1">
-        <v>16.253447</v>
+        <v>16.253447000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>905.841000</v>
+        <v>905.84100000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-192.107000</v>
+        <v>-192.107</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>58522.363892</v>
+        <v>58522.363892000001</v>
       </c>
       <c r="G25" s="1">
-        <v>16.256212</v>
+        <v>16.256212000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>922.186000</v>
+        <v>922.18600000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-162.488000</v>
+        <v>-162.488</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>58532.533863</v>
+        <v>58532.533862999997</v>
       </c>
       <c r="L25" s="1">
-        <v>16.259037</v>
+        <v>16.259036999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>942.829000</v>
+        <v>942.82899999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-116.803000</v>
+        <v>-116.803</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>58543.099144</v>
@@ -6437,13 +6853,13 @@
         <v>16.261972</v>
       </c>
       <c r="R25" s="1">
-        <v>949.190000</v>
+        <v>949.19</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.904000</v>
+        <v>-101.904</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>58553.560266</v>
@@ -6452,133 +6868,133 @@
         <v>16.264878</v>
       </c>
       <c r="W25" s="1">
-        <v>955.459000</v>
+        <v>955.45899999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.705300</v>
+        <v>-88.705299999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>58564.106702</v>
+        <v>58564.106701999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.267807</v>
+        <v>16.267807000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.754000</v>
+        <v>962.75400000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.662100</v>
+        <v>-79.662099999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>58574.581752</v>
+        <v>58574.581751999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.270717</v>
+        <v>16.270717000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.646000</v>
+        <v>967.64599999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.468200</v>
+        <v>-79.468199999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>58585.489265</v>
+        <v>58585.489264999997</v>
       </c>
       <c r="AK25" s="1">
         <v>16.273747</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.553000</v>
+        <v>975.553</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.615900</v>
+        <v>-87.615899999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>58596.434978</v>
+        <v>58596.434977999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.276787</v>
+        <v>16.276786999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.804000</v>
+        <v>984.80399999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.697000</v>
+        <v>-102.697</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>58607.547812</v>
+        <v>58607.547811999997</v>
       </c>
       <c r="AU25" s="1">
         <v>16.279874</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.344000</v>
+        <v>996.34400000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.351000</v>
+        <v>-124.351</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>58618.092263</v>
+        <v>58618.092262999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.282803</v>
+        <v>16.282803000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.122000</v>
+        <v>-143.12200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>58629.399103</v>
+        <v>58629.399103000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.285944</v>
+        <v>16.285944000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1051.730000</v>
+        <v>1051.73</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.109000</v>
+        <v>-228.10900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>58640.505646</v>
+        <v>58640.505645999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.289029</v>
+        <v>16.289028999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1131.830000</v>
+        <v>1131.83</v>
       </c>
       <c r="BL25" s="1">
-        <v>-363.796000</v>
+        <v>-363.79599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>58651.259241</v>
@@ -6587,75 +7003,75 @@
         <v>16.292016</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.000000</v>
+        <v>1264</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-572.796000</v>
+        <v>-572.79600000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>58661.832957</v>
+        <v>58661.832956999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.294954</v>
+        <v>16.294954000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1411.430000</v>
+        <v>1411.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-795.432000</v>
+        <v>-795.43200000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>58672.986493</v>
+        <v>58672.986492999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.298052</v>
+        <v>16.298051999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1573.700000</v>
+        <v>1573.7</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1027.360000</v>
+        <v>-1027.3599999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>58686.180077</v>
+        <v>58686.180076999997</v>
       </c>
       <c r="CD25" s="1">
         <v>16.301717</v>
       </c>
       <c r="CE25" s="1">
-        <v>1980.090000</v>
+        <v>1980.09</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1567.550000</v>
+        <v>-1567.55</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>58512.537686</v>
+        <v>58512.537686000003</v>
       </c>
       <c r="B26" s="1">
-        <v>16.253483</v>
+        <v>16.253482999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>905.923000</v>
+        <v>905.923</v>
       </c>
       <c r="D26" s="1">
-        <v>-192.431000</v>
+        <v>-192.43100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>58522.668932</v>
@@ -6664,240 +7080,241 @@
         <v>16.256297</v>
       </c>
       <c r="H26" s="1">
-        <v>922.042000</v>
+        <v>922.04200000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.724000</v>
+        <v>-162.72399999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>58532.881063</v>
+        <v>58532.881063000001</v>
       </c>
       <c r="L26" s="1">
         <v>16.259134</v>
       </c>
       <c r="M26" s="1">
-        <v>942.987000</v>
+        <v>942.98699999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.861000</v>
+        <v>-116.861</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>58543.449835</v>
+        <v>58543.449834999999</v>
       </c>
       <c r="Q26" s="1">
         <v>16.262069</v>
       </c>
       <c r="R26" s="1">
-        <v>949.211000</v>
+        <v>949.21100000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.960000</v>
+        <v>-101.96</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>58553.904491</v>
+        <v>58553.904491000001</v>
       </c>
       <c r="V26" s="1">
-        <v>16.264973</v>
+        <v>16.264973000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.500000</v>
+        <v>955.5</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.595300</v>
+        <v>-88.595299999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>58564.803580</v>
+        <v>58564.80358</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.268001</v>
+        <v>16.268001000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.772000</v>
+        <v>962.77200000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.638100</v>
+        <v>-79.638099999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>58575.268707</v>
+        <v>58575.268707000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.270908</v>
+        <v>16.270907999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.678000</v>
+        <v>967.678</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.446900</v>
+        <v>-79.446899999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>58585.852801</v>
+        <v>58585.852801000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.273848</v>
+        <v>16.273848000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.566000</v>
+        <v>975.56600000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.592300</v>
+        <v>-87.592299999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>58596.798018</v>
+        <v>58596.798018000001</v>
       </c>
       <c r="AP26" s="1">
         <v>16.276888</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.820000</v>
+        <v>984.82</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.698000</v>
+        <v>-102.69799999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>58607.912371</v>
+        <v>58607.912370999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.279976</v>
+        <v>16.279976000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.320000</v>
+        <v>996.32</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.339000</v>
+        <v>-124.339</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>58618.762853</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.282990</v>
+        <v>16.282990000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.060000</v>
+        <v>1006.06</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.164000</v>
+        <v>-143.16399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>58629.833063</v>
+        <v>58629.833062999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.286065</v>
+        <v>16.286065000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1051.740000</v>
+        <v>1051.74</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.095000</v>
+        <v>-228.095</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>58640.945463</v>
+        <v>58640.945462999996</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.289152</v>
+        <v>16.289152000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1131.840000</v>
+        <v>1131.8399999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-363.800000</v>
+        <v>-363.8</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>58651.680347</v>
+        <v>58651.680347000001</v>
       </c>
       <c r="BO26" s="1">
         <v>16.292133</v>
       </c>
       <c r="BP26" s="1">
-        <v>1263.940000</v>
+        <v>1263.94</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-572.785000</v>
+        <v>-572.78499999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>58662.241660</v>
+        <v>58662.24166</v>
       </c>
       <c r="BT26" s="1">
         <v>16.295067</v>
       </c>
       <c r="BU26" s="1">
-        <v>1411.530000</v>
+        <v>1411.53</v>
       </c>
       <c r="BV26" s="1">
-        <v>-795.568000</v>
+        <v>-795.56799999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>58673.404620</v>
+        <v>58673.404620000001</v>
       </c>
       <c r="BY26" s="1">
         <v>16.298168</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1573.670000</v>
+        <v>1573.67</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1027.290000</v>
+        <v>-1027.29</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>58686.720223</v>
+        <v>58686.720222999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.301867</v>
+        <v>16.301867000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1980.920000</v>
+        <v>1980.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1569.350000</v>
+        <v>-1569.35</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>